--- a/src/main/webapp/resources/template/반출요청양식.xlsx
+++ b/src/main/webapp/resources/template/반출요청양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\egov\assetmanager\src\main\webapp\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>다음과 같이 양식을 작성해주세요.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,12 +71,23 @@
     <t>반납 예정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성 갤럭시북 Pro 2</t>
+  </si>
+  <si>
+    <t>프로젝트 시작으로 새로운 노트북 반출 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +127,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A6666"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A6666"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -297,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +408,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -355,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -365,6 +469,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6A6666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -638,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -650,20 +759,31 @@
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.08203125" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+    <col min="4" max="4" width="30.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13"/>
+      <c r="E2" s="14">
+        <v>20251127</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -673,80 +793,140 @@
       <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="E15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="E16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="E16:G17"/>
     <mergeCell ref="A16:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/resources/template/반출요청양식.xlsx
+++ b/src/main/webapp/resources/template/반출요청양식.xlsx
@@ -29,7 +29,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,6 +423,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -458,9 +461,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,7 +751,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -780,9 +780,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G3" s="30"/>
-    </row>
+    <row r="3" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>1</v>
@@ -830,7 +828,6 @@
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -838,15 +835,14 @@
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -902,22 +898,22 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="E16" s="18" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="E16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
